--- a/Resultaten BP CSLA NET test juist.xlsx
+++ b/Resultaten BP CSLA NET test juist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdekeyser\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdekeyser\Documents\GitHub\BP-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -402,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4:X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,6 +542,12 @@
       <c r="O5">
         <v>2</v>
       </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
       <c r="T5">
         <v>201</v>
       </c>
@@ -587,6 +592,12 @@
       <c r="O6">
         <v>3</v>
       </c>
+      <c r="Q6">
+        <v>13</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
       <c r="T6">
         <v>4</v>
       </c>
@@ -629,6 +640,12 @@
         <v>9</v>
       </c>
       <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>31</v>
+      </c>
+      <c r="R7">
         <v>4</v>
       </c>
       <c r="T7">
@@ -675,6 +692,12 @@
       <c r="O8">
         <v>3</v>
       </c>
+      <c r="Q8">
+        <v>103</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
       <c r="T8">
         <v>4</v>
       </c>
@@ -719,6 +742,12 @@
       <c r="O9">
         <v>8</v>
       </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
       <c r="T9">
         <v>5</v>
       </c>
@@ -763,6 +792,12 @@
       <c r="O10">
         <v>2</v>
       </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
       <c r="T10">
         <v>4</v>
       </c>
@@ -807,6 +842,12 @@
       <c r="O11">
         <v>5</v>
       </c>
+      <c r="Q11">
+        <v>57</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
       <c r="T11">
         <v>4</v>
       </c>
@@ -850,6 +891,12 @@
       </c>
       <c r="O12">
         <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>8</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
       </c>
       <c r="T12">
         <v>3</v>
@@ -895,6 +942,12 @@
       <c r="O13">
         <v>7</v>
       </c>
+      <c r="Q13">
+        <v>15</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
       <c r="T13">
         <v>6</v>
       </c>
@@ -939,6 +992,12 @@
       <c r="O14">
         <v>5</v>
       </c>
+      <c r="Q14">
+        <v>13</v>
+      </c>
+      <c r="R14">
+        <v>7</v>
+      </c>
       <c r="T14">
         <v>5</v>
       </c>
@@ -983,6 +1042,12 @@
       <c r="O15">
         <v>1</v>
       </c>
+      <c r="Q15">
+        <v>69</v>
+      </c>
+      <c r="R15">
+        <v>8</v>
+      </c>
       <c r="T15">
         <v>3</v>
       </c>
@@ -1027,6 +1092,12 @@
       <c r="O16">
         <v>4</v>
       </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
+      </c>
       <c r="T16">
         <v>2</v>
       </c>
@@ -1070,6 +1141,12 @@
       </c>
       <c r="O17">
         <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
       </c>
       <c r="T17">
         <v>5</v>
@@ -1115,6 +1192,12 @@
       <c r="O18">
         <v>3</v>
       </c>
+      <c r="Q18">
+        <v>228</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
       <c r="T18">
         <v>3</v>
       </c>
@@ -1158,6 +1241,12 @@
       </c>
       <c r="O19">
         <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>13</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
       </c>
       <c r="T19">
         <v>3</v>
@@ -1203,6 +1292,12 @@
       <c r="O20">
         <v>3</v>
       </c>
+      <c r="Q20">
+        <v>57</v>
+      </c>
+      <c r="R20">
+        <v>8</v>
+      </c>
       <c r="T20">
         <v>19</v>
       </c>
@@ -1247,6 +1342,12 @@
       <c r="O21">
         <v>3</v>
       </c>
+      <c r="Q21">
+        <v>22</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
       <c r="T21">
         <v>26</v>
       </c>
@@ -1290,6 +1391,12 @@
       </c>
       <c r="O22">
         <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>35</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
       </c>
       <c r="T22">
         <v>49</v>
@@ -1335,6 +1442,12 @@
       <c r="O23">
         <v>1</v>
       </c>
+      <c r="Q23">
+        <v>57</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
       <c r="T23">
         <v>4</v>
       </c>
@@ -1379,6 +1492,12 @@
       <c r="O24">
         <v>3</v>
       </c>
+      <c r="Q24">
+        <v>44</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
       <c r="T24">
         <v>6</v>
       </c>
@@ -1423,6 +1542,12 @@
       <c r="O25">
         <v>3</v>
       </c>
+      <c r="Q25">
+        <v>21</v>
+      </c>
+      <c r="R25">
+        <v>6</v>
+      </c>
       <c r="T25">
         <v>2</v>
       </c>
@@ -1467,6 +1592,12 @@
       <c r="O26">
         <v>2</v>
       </c>
+      <c r="Q26">
+        <v>24</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
       <c r="T26">
         <v>16</v>
       </c>
@@ -1510,6 +1641,12 @@
       </c>
       <c r="O27">
         <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>9</v>
+      </c>
+      <c r="R27">
+        <v>6</v>
       </c>
       <c r="T27">
         <v>4</v>
@@ -1544,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="J28">
-        <v>934</v>
+        <v>368</v>
       </c>
       <c r="K28">
         <v>11</v>
@@ -1554,6 +1691,12 @@
       </c>
       <c r="O28">
         <v>5</v>
+      </c>
+      <c r="Q28">
+        <v>29</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
       </c>
       <c r="T28">
         <v>5</v>
@@ -1599,6 +1742,12 @@
       <c r="O29">
         <v>2</v>
       </c>
+      <c r="Q29">
+        <v>9</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
       <c r="T29">
         <v>3</v>
       </c>
@@ -1643,6 +1792,12 @@
       <c r="O30">
         <v>4</v>
       </c>
+      <c r="Q30">
+        <v>30</v>
+      </c>
+      <c r="R30">
+        <v>6</v>
+      </c>
       <c r="T30">
         <v>4</v>
       </c>
@@ -1687,6 +1842,12 @@
       <c r="O31">
         <v>4</v>
       </c>
+      <c r="Q31">
+        <v>41</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
       <c r="T31">
         <v>5</v>
       </c>
@@ -1731,6 +1892,12 @@
       <c r="O32">
         <v>3</v>
       </c>
+      <c r="Q32">
+        <v>20</v>
+      </c>
+      <c r="R32">
+        <v>7</v>
+      </c>
       <c r="T32">
         <v>6</v>
       </c>
@@ -1775,6 +1942,12 @@
       <c r="O33">
         <v>2</v>
       </c>
+      <c r="Q33">
+        <v>38</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
       <c r="T33">
         <v>8</v>
       </c>
@@ -1818,6 +1991,12 @@
       </c>
       <c r="O34">
         <v>6</v>
+      </c>
+      <c r="Q34">
+        <v>10</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
       </c>
       <c r="T34">
         <v>3</v>
@@ -1862,6 +2041,12 @@
       </c>
       <c r="O35">
         <v>4</v>
+      </c>
+      <c r="Q35">
+        <v>44</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
       </c>
       <c r="T35">
         <v>4</v>
